--- a/uploads/excellFile.xlsx
+++ b/uploads/excellFile.xlsx
@@ -2282,13 +2282,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2588,88 +2588,94 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="10" max="14" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="9"/>
+      <c r="L1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11" t="s">
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11" t="s">
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11" t="s">
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="J2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2682,7 +2688,7 @@
       <c r="M2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="9"/>
       <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2719,7 +2725,7 @@
       <c r="Z2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AA2" s="11"/>
+      <c r="AA2" s="9"/>
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="2" t="s">
@@ -2749,16 +2755,16 @@
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>30</v>
       </c>
       <c r="N3" s="2" t="s">
@@ -2788,7 +2794,7 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="6"/>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2820,16 +2826,16 @@
       <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="10" t="s">
         <v>30</v>
       </c>
       <c r="N4" s="2" t="s">
@@ -2871,7 +2877,7 @@
       <c r="Z4" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="AA4" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2903,16 +2909,16 @@
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="10" t="s">
         <v>30</v>
       </c>
       <c r="N5" s="2" t="s">
@@ -2954,7 +2960,7 @@
       <c r="Z5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AA5" s="9" t="s">
+      <c r="AA5" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2986,16 +2992,16 @@
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="N6" s="2" t="s">
@@ -3037,7 +3043,7 @@
       <c r="Z6" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3069,16 +3075,16 @@
       <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="10" t="s">
         <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
@@ -3120,7 +3126,7 @@
       <c r="Z7" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AA7" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3152,16 +3158,16 @@
       <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="9" t="s">
+      <c r="M8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -3191,7 +3197,7 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="9" t="s">
+      <c r="AA8" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3223,16 +3229,16 @@
       <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="J9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="9" t="s">
+      <c r="M9" s="10" t="s">
         <v>30</v>
       </c>
       <c r="N9" s="2" t="s">
@@ -3274,7 +3280,7 @@
       <c r="Z9" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AA9" s="9" t="s">
+      <c r="AA9" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3306,16 +3312,16 @@
       <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="J10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="M10" s="10" t="s">
         <v>30</v>
       </c>
       <c r="N10" s="2" t="s">
@@ -3357,7 +3363,7 @@
       <c r="Z10" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AA10" s="9" t="s">
+      <c r="AA10" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3389,16 +3395,16 @@
       <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="J11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="10" t="s">
         <v>30</v>
       </c>
       <c r="N11" s="2" t="s">
@@ -3440,7 +3446,7 @@
       <c r="Z11" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="AA11" s="9" t="s">
+      <c r="AA11" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3472,16 +3478,16 @@
       <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="J12" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
@@ -3523,7 +3529,7 @@
       <c r="Z12" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="AA12" s="9" t="s">
+      <c r="AA12" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3555,16 +3561,16 @@
       <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="9" t="s">
+      <c r="M13" s="10" t="s">
         <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
@@ -3594,7 +3600,7 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="6"/>
-      <c r="AA13" s="9" t="s">
+      <c r="AA13" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3626,16 +3632,16 @@
       <c r="I14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="9" t="s">
+      <c r="M14" s="10" t="s">
         <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
@@ -3661,7 +3667,7 @@
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="9" t="s">
+      <c r="AA14" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3693,16 +3699,16 @@
       <c r="I15" s="3">
         <v>2</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M15" s="10" t="s">
+      <c r="M15" s="11" t="s">
         <v>157</v>
       </c>
       <c r="N15" s="3" t="s">
@@ -3728,7 +3734,7 @@
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="7"/>
-      <c r="AA15" s="10" t="s">
+      <c r="AA15" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3760,16 +3766,16 @@
       <c r="I16" s="3">
         <v>2</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M16" s="10" t="s">
+      <c r="M16" s="11" t="s">
         <v>157</v>
       </c>
       <c r="N16" s="3" t="s">
@@ -3811,7 +3817,7 @@
       <c r="Z16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AA16" s="10" t="s">
+      <c r="AA16" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3843,16 +3849,16 @@
       <c r="I17" s="3">
         <v>2</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M17" s="10" t="s">
+      <c r="M17" s="11" t="s">
         <v>157</v>
       </c>
       <c r="N17" s="3" t="s">
@@ -3894,7 +3900,7 @@
       <c r="Z17" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="AA17" s="10" t="s">
+      <c r="AA17" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3926,16 +3932,16 @@
       <c r="I18" s="3">
         <v>2</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="11" t="s">
         <v>157</v>
       </c>
       <c r="N18" s="3" t="s">
@@ -3977,7 +3983,7 @@
       <c r="Z18" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="AA18" s="10" t="s">
+      <c r="AA18" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4009,16 +4015,16 @@
       <c r="I19" s="3">
         <v>2</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="11" t="s">
         <v>157</v>
       </c>
       <c r="N19" s="3" t="s">
@@ -4048,7 +4054,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="7"/>
-      <c r="AA19" s="10" t="s">
+      <c r="AA19" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4080,16 +4086,16 @@
       <c r="I20" s="3">
         <v>2</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M20" s="10" t="s">
+      <c r="M20" s="11" t="s">
         <v>157</v>
       </c>
       <c r="N20" s="3" t="s">
@@ -4131,7 +4137,7 @@
       <c r="Z20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AA20" s="10" t="s">
+      <c r="AA20" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4163,16 +4169,16 @@
       <c r="I21" s="3">
         <v>2</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M21" s="10" t="s">
+      <c r="M21" s="11" t="s">
         <v>157</v>
       </c>
       <c r="N21" s="3" t="s">
@@ -4214,7 +4220,7 @@
       <c r="Z21" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="AA21" s="10" t="s">
+      <c r="AA21" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4246,16 +4252,16 @@
       <c r="I22" s="3">
         <v>2</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M22" s="10" t="s">
+      <c r="M22" s="11" t="s">
         <v>157</v>
       </c>
       <c r="N22" s="3" t="s">
@@ -4297,7 +4303,7 @@
       <c r="Z22" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="AA22" s="10" t="s">
+      <c r="AA22" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4329,16 +4335,16 @@
       <c r="I23" s="3">
         <v>2</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M23" s="10" t="s">
+      <c r="M23" s="11" t="s">
         <v>157</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -4380,7 +4386,7 @@
       <c r="Z23" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="AA23" s="10" t="s">
+      <c r="AA23" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4412,16 +4418,16 @@
       <c r="I24" s="3">
         <v>2</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M24" s="10" t="s">
+      <c r="M24" s="11" t="s">
         <v>157</v>
       </c>
       <c r="N24" s="3" t="s">
@@ -4463,7 +4469,7 @@
       <c r="Z24" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="AA24" s="10" t="s">
+      <c r="AA24" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4495,16 +4501,16 @@
       <c r="I25" s="3">
         <v>2</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="11" t="s">
         <v>157</v>
       </c>
       <c r="N25" s="3" t="s">
@@ -4534,7 +4540,7 @@
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
       <c r="Z25" s="7"/>
-      <c r="AA25" s="10" t="s">
+      <c r="AA25" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4566,16 +4572,16 @@
       <c r="I26" s="3">
         <v>2</v>
       </c>
-      <c r="J26" s="10" t="s">
+      <c r="J26" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M26" s="10" t="s">
+      <c r="M26" s="11" t="s">
         <v>157</v>
       </c>
       <c r="N26" s="3" t="s">
@@ -4601,7 +4607,7 @@
       </c>
       <c r="Y26" s="3"/>
       <c r="Z26" s="7"/>
-      <c r="AA26" s="10" t="s">
+      <c r="AA26" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4633,16 +4639,16 @@
       <c r="I27" s="2">
         <v>3</v>
       </c>
-      <c r="J27" s="9" t="s">
+      <c r="J27" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="K27" s="9" t="s">
+      <c r="K27" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="L27" s="9" t="s">
+      <c r="L27" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" s="10" t="s">
         <v>255</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -4672,7 +4678,7 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="6"/>
-      <c r="AA27" s="9"/>
+      <c r="AA27" s="10"/>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="2" t="s">
@@ -4702,16 +4708,16 @@
       <c r="I28" s="2">
         <v>3</v>
       </c>
-      <c r="J28" s="9" t="s">
+      <c r="J28" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="L28" s="9" t="s">
+      <c r="L28" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" s="10" t="s">
         <v>255</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -4753,7 +4759,7 @@
       <c r="Z28" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="AA28" s="9"/>
+      <c r="AA28" s="10"/>
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="2" t="s">
@@ -4783,16 +4789,16 @@
       <c r="I29" s="2">
         <v>3</v>
       </c>
-      <c r="J29" s="9" t="s">
+      <c r="J29" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="K29" s="9" t="s">
+      <c r="K29" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="L29" s="9" t="s">
+      <c r="L29" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="M29" s="10" t="s">
         <v>255</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -4834,7 +4840,7 @@
       <c r="Z29" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="AA29" s="9"/>
+      <c r="AA29" s="10"/>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="2" t="s">
@@ -4864,16 +4870,16 @@
       <c r="I30" s="2">
         <v>3</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="L30" s="9" t="s">
+      <c r="L30" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="10" t="s">
         <v>255</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -4915,7 +4921,7 @@
       <c r="Z30" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="AA30" s="9"/>
+      <c r="AA30" s="10"/>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="2" t="s">
@@ -4945,16 +4951,16 @@
       <c r="I31" s="2">
         <v>3</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="K31" s="9" t="s">
+      <c r="K31" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="L31" s="9" t="s">
+      <c r="L31" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="M31" s="9" t="s">
+      <c r="M31" s="10" t="s">
         <v>255</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -4996,7 +5002,7 @@
       <c r="Z31" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="AA31" s="9"/>
+      <c r="AA31" s="10"/>
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="2" t="s">
@@ -5026,16 +5032,16 @@
       <c r="I32" s="2">
         <v>3</v>
       </c>
-      <c r="J32" s="9" t="s">
+      <c r="J32" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="K32" s="9" t="s">
+      <c r="K32" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="M32" s="9" t="s">
+      <c r="M32" s="10" t="s">
         <v>255</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -5065,7 +5071,7 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="6"/>
-      <c r="AA32" s="9"/>
+      <c r="AA32" s="10"/>
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="2" t="s">
@@ -5095,16 +5101,16 @@
       <c r="I33" s="2">
         <v>3</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="J33" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="K33" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="L33" s="9" t="s">
+      <c r="L33" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="M33" s="9" t="s">
+      <c r="M33" s="10" t="s">
         <v>255</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5146,7 +5152,7 @@
       <c r="Z33" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="AA33" s="9"/>
+      <c r="AA33" s="10"/>
     </row>
     <row r="34" spans="1:27">
       <c r="A34" s="2" t="s">
@@ -5176,16 +5182,16 @@
       <c r="I34" s="2">
         <v>3</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="J34" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="M34" s="10" t="s">
         <v>255</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -5227,7 +5233,7 @@
       <c r="Z34" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="AA34" s="9"/>
+      <c r="AA34" s="10"/>
     </row>
     <row r="35" spans="1:27">
       <c r="A35" s="2" t="s">
@@ -5257,16 +5263,16 @@
       <c r="I35" s="2">
         <v>3</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="J35" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="K35" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="L35" s="9" t="s">
+      <c r="L35" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="M35" s="9" t="s">
+      <c r="M35" s="10" t="s">
         <v>255</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -5308,7 +5314,7 @@
       <c r="Z35" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="AA35" s="9"/>
+      <c r="AA35" s="10"/>
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="2" t="s">
@@ -5338,16 +5344,16 @@
       <c r="I36" s="2">
         <v>3</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="J36" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="M36" s="9" t="s">
+      <c r="M36" s="10" t="s">
         <v>255</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -5389,7 +5395,7 @@
       <c r="Z36" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="AA36" s="9"/>
+      <c r="AA36" s="10"/>
     </row>
     <row r="37" spans="1:27">
       <c r="A37" s="2" t="s">
@@ -5419,16 +5425,16 @@
       <c r="I37" s="2">
         <v>3</v>
       </c>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="L37" s="9" t="s">
+      <c r="L37" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="M37" s="9" t="s">
+      <c r="M37" s="10" t="s">
         <v>255</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -5458,7 +5464,7 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="6"/>
-      <c r="AA37" s="9"/>
+      <c r="AA37" s="10"/>
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="2" t="s">
@@ -5488,16 +5494,16 @@
       <c r="I38" s="2">
         <v>3</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="K38" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="L38" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="M38" s="9" t="s">
+      <c r="M38" s="10" t="s">
         <v>255</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -5523,7 +5529,7 @@
       </c>
       <c r="Y38" s="2"/>
       <c r="Z38" s="6"/>
-      <c r="AA38" s="9"/>
+      <c r="AA38" s="10"/>
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="3" t="s">
@@ -5553,16 +5559,16 @@
       <c r="I39" s="3">
         <v>4</v>
       </c>
-      <c r="J39" s="10" t="s">
+      <c r="J39" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K39" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="M39" s="10" t="s">
+      <c r="M39" s="11" t="s">
         <v>352</v>
       </c>
       <c r="N39" s="3" t="s">
@@ -5588,7 +5594,7 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="7"/>
-      <c r="AA39" s="10" t="s">
+      <c r="AA39" s="11" t="s">
         <v>357</v>
       </c>
     </row>
@@ -5620,16 +5626,16 @@
       <c r="I40" s="3">
         <v>4</v>
       </c>
-      <c r="J40" s="10" t="s">
+      <c r="J40" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="M40" s="10" t="s">
+      <c r="M40" s="11" t="s">
         <v>352</v>
       </c>
       <c r="N40" s="3" t="s">
@@ -5671,7 +5677,7 @@
       <c r="Z40" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="AA40" s="10" t="s">
+      <c r="AA40" s="11" t="s">
         <v>357</v>
       </c>
     </row>
@@ -5703,16 +5709,16 @@
       <c r="I41" s="3">
         <v>4</v>
       </c>
-      <c r="J41" s="10" t="s">
+      <c r="J41" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="K41" s="10" t="s">
+      <c r="K41" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L41" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="M41" s="10" t="s">
+      <c r="M41" s="11" t="s">
         <v>352</v>
       </c>
       <c r="N41" s="3" t="s">
@@ -5754,7 +5760,7 @@
       <c r="Z41" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="AA41" s="10" t="s">
+      <c r="AA41" s="11" t="s">
         <v>357</v>
       </c>
     </row>
@@ -5786,16 +5792,16 @@
       <c r="I42" s="3">
         <v>4</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J42" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="K42" s="10" t="s">
+      <c r="K42" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="L42" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="M42" s="10" t="s">
+      <c r="M42" s="11" t="s">
         <v>352</v>
       </c>
       <c r="N42" s="3" t="s">
@@ -5837,7 +5843,7 @@
       <c r="Z42" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="AA42" s="10" t="s">
+      <c r="AA42" s="11" t="s">
         <v>357</v>
       </c>
     </row>
@@ -5869,16 +5875,16 @@
       <c r="I43" s="3">
         <v>4</v>
       </c>
-      <c r="J43" s="10" t="s">
+      <c r="J43" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="M43" s="10" t="s">
+      <c r="M43" s="11" t="s">
         <v>352</v>
       </c>
       <c r="N43" s="3" t="s">
@@ -5908,7 +5914,7 @@
       <c r="X43" s="3"/>
       <c r="Y43" s="3"/>
       <c r="Z43" s="7"/>
-      <c r="AA43" s="10" t="s">
+      <c r="AA43" s="11" t="s">
         <v>357</v>
       </c>
     </row>
@@ -5940,16 +5946,16 @@
       <c r="I44" s="3">
         <v>4</v>
       </c>
-      <c r="J44" s="10" t="s">
+      <c r="J44" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="L44" s="10" t="s">
+      <c r="L44" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="M44" s="11" t="s">
         <v>352</v>
       </c>
       <c r="N44" s="3" t="s">
@@ -5991,7 +5997,7 @@
       <c r="Z44" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="AA44" s="10" t="s">
+      <c r="AA44" s="11" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6023,16 +6029,16 @@
       <c r="I45" s="3">
         <v>4</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J45" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="K45" s="10" t="s">
+      <c r="K45" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="L45" s="10" t="s">
+      <c r="L45" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="M45" s="10" t="s">
+      <c r="M45" s="11" t="s">
         <v>352</v>
       </c>
       <c r="N45" s="3" t="s">
@@ -6074,7 +6080,7 @@
       <c r="Z45" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="AA45" s="10" t="s">
+      <c r="AA45" s="11" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6106,16 +6112,16 @@
       <c r="I46" s="3">
         <v>4</v>
       </c>
-      <c r="J46" s="10" t="s">
+      <c r="J46" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="K46" s="10" t="s">
+      <c r="K46" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="L46" s="10" t="s">
+      <c r="L46" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="M46" s="10" t="s">
+      <c r="M46" s="11" t="s">
         <v>352</v>
       </c>
       <c r="N46" s="3" t="s">
@@ -6157,7 +6163,7 @@
       <c r="Z46" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="AA46" s="10" t="s">
+      <c r="AA46" s="11" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6189,16 +6195,16 @@
       <c r="I47" s="3">
         <v>4</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="M47" s="10" t="s">
+      <c r="M47" s="11" t="s">
         <v>352</v>
       </c>
       <c r="N47" s="3" t="s">
@@ -6240,7 +6246,7 @@
       <c r="Z47" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="AA47" s="10" t="s">
+      <c r="AA47" s="11" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6272,16 +6278,16 @@
       <c r="I48" s="3">
         <v>4</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="J48" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="L48" s="10" t="s">
+      <c r="L48" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="M48" s="10" t="s">
+      <c r="M48" s="11" t="s">
         <v>352</v>
       </c>
       <c r="N48" s="3" t="s">
@@ -6323,7 +6329,7 @@
       <c r="Z48" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="AA48" s="10" t="s">
+      <c r="AA48" s="11" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6355,16 +6361,16 @@
       <c r="I49" s="3">
         <v>4</v>
       </c>
-      <c r="J49" s="10" t="s">
+      <c r="J49" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="L49" s="10" t="s">
+      <c r="L49" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="M49" s="10" t="s">
+      <c r="M49" s="11" t="s">
         <v>352</v>
       </c>
       <c r="N49" s="3" t="s">
@@ -6390,7 +6396,7 @@
       <c r="X49" s="3"/>
       <c r="Y49" s="3"/>
       <c r="Z49" s="7"/>
-      <c r="AA49" s="10" t="s">
+      <c r="AA49" s="11" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6422,16 +6428,16 @@
       <c r="I50" s="2">
         <v>5</v>
       </c>
-      <c r="J50" s="9" t="s">
+      <c r="J50" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="K50" s="9" t="s">
+      <c r="K50" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="L50" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="M50" s="9" t="s">
+      <c r="M50" s="10" t="s">
         <v>428</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -6461,7 +6467,7 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="6"/>
-      <c r="AA50" s="9"/>
+      <c r="AA50" s="10"/>
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="2" t="s">
@@ -6491,16 +6497,16 @@
       <c r="I51" s="2">
         <v>5</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="J51" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="K51" s="9" t="s">
+      <c r="K51" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="M51" s="9" t="s">
+      <c r="M51" s="10" t="s">
         <v>428</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6542,7 +6548,7 @@
       <c r="Z51" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="AA51" s="9"/>
+      <c r="AA51" s="10"/>
     </row>
     <row r="52" spans="1:27">
       <c r="A52" s="2" t="s">
@@ -6572,16 +6578,16 @@
       <c r="I52" s="2">
         <v>5</v>
       </c>
-      <c r="J52" s="9" t="s">
+      <c r="J52" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="K52" s="9" t="s">
+      <c r="K52" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="L52" s="9" t="s">
+      <c r="L52" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="M52" s="9" t="s">
+      <c r="M52" s="10" t="s">
         <v>428</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -6623,7 +6629,7 @@
       <c r="Z52" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="AA52" s="9"/>
+      <c r="AA52" s="10"/>
     </row>
     <row r="53" spans="1:27">
       <c r="A53" s="2" t="s">
@@ -6653,16 +6659,16 @@
       <c r="I53" s="2">
         <v>5</v>
       </c>
-      <c r="J53" s="9" t="s">
+      <c r="J53" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="K53" s="9" t="s">
+      <c r="K53" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="L53" s="9" t="s">
+      <c r="L53" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="M53" s="9" t="s">
+      <c r="M53" s="10" t="s">
         <v>428</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -6704,7 +6710,7 @@
       <c r="Z53" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="AA53" s="9"/>
+      <c r="AA53" s="10"/>
     </row>
     <row r="54" spans="1:27">
       <c r="A54" s="2" t="s">
@@ -6734,16 +6740,16 @@
       <c r="I54" s="2">
         <v>5</v>
       </c>
-      <c r="J54" s="9" t="s">
+      <c r="J54" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="K54" s="9" t="s">
+      <c r="K54" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="L54" s="9" t="s">
+      <c r="L54" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="M54" s="9" t="s">
+      <c r="M54" s="10" t="s">
         <v>428</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -6785,7 +6791,7 @@
       <c r="Z54" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="AA54" s="9"/>
+      <c r="AA54" s="10"/>
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="2" t="s">
@@ -6815,16 +6821,16 @@
       <c r="I55" s="2">
         <v>5</v>
       </c>
-      <c r="J55" s="9" t="s">
+      <c r="J55" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="K55" s="9" t="s">
+      <c r="K55" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="L55" s="9" t="s">
+      <c r="L55" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="M55" s="9" t="s">
+      <c r="M55" s="10" t="s">
         <v>428</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -6854,7 +6860,7 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="6"/>
-      <c r="AA55" s="9"/>
+      <c r="AA55" s="10"/>
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="2" t="s">
@@ -6884,16 +6890,16 @@
       <c r="I56" s="2">
         <v>5</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="J56" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="K56" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="L56" s="9" t="s">
+      <c r="L56" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="M56" s="9" t="s">
+      <c r="M56" s="10" t="s">
         <v>428</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -6935,7 +6941,7 @@
       <c r="Z56" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="AA56" s="9"/>
+      <c r="AA56" s="10"/>
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="2" t="s">
@@ -6965,16 +6971,16 @@
       <c r="I57" s="2">
         <v>5</v>
       </c>
-      <c r="J57" s="9" t="s">
+      <c r="J57" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="K57" s="9" t="s">
+      <c r="K57" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="L57" s="9" t="s">
+      <c r="L57" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="M57" s="9" t="s">
+      <c r="M57" s="10" t="s">
         <v>428</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -7016,7 +7022,7 @@
       <c r="Z57" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="AA57" s="9"/>
+      <c r="AA57" s="10"/>
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="2" t="s">
@@ -7046,16 +7052,16 @@
       <c r="I58" s="2">
         <v>5</v>
       </c>
-      <c r="J58" s="9" t="s">
+      <c r="J58" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="K58" s="9" t="s">
+      <c r="K58" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="L58" s="9" t="s">
+      <c r="L58" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="M58" s="9" t="s">
+      <c r="M58" s="10" t="s">
         <v>428</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -7097,7 +7103,7 @@
       <c r="Z58" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="AA58" s="9"/>
+      <c r="AA58" s="10"/>
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="2" t="s">
@@ -7127,16 +7133,16 @@
       <c r="I59" s="2">
         <v>5</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="J59" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="K59" s="9" t="s">
+      <c r="K59" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="L59" s="9" t="s">
+      <c r="L59" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="M59" s="9" t="s">
+      <c r="M59" s="10" t="s">
         <v>428</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -7178,7 +7184,7 @@
       <c r="Z59" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="AA59" s="9"/>
+      <c r="AA59" s="10"/>
     </row>
     <row r="60" spans="1:27">
       <c r="A60" s="2" t="s">
@@ -7208,16 +7214,16 @@
       <c r="I60" s="2">
         <v>5</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="J60" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="K60" s="9" t="s">
+      <c r="K60" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="L60" s="9" t="s">
+      <c r="L60" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="M60" s="9" t="s">
+      <c r="M60" s="10" t="s">
         <v>428</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -7243,7 +7249,7 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="6"/>
-      <c r="AA60" s="9"/>
+      <c r="AA60" s="10"/>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" s="3" t="s">
@@ -7273,16 +7279,16 @@
       <c r="I61" s="3">
         <v>6</v>
       </c>
-      <c r="J61" s="10" t="s">
+      <c r="J61" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K61" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="M61" s="10" t="s">
+      <c r="M61" s="11" t="s">
         <v>507</v>
       </c>
       <c r="N61" s="3" t="s">
@@ -7312,7 +7318,7 @@
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="7"/>
-      <c r="AA61" s="10" t="s">
+      <c r="AA61" s="11" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7344,16 +7350,16 @@
       <c r="I62" s="3">
         <v>6</v>
       </c>
-      <c r="J62" s="10" t="s">
+      <c r="J62" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="K62" s="10" t="s">
+      <c r="K62" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="M62" s="10" t="s">
+      <c r="M62" s="11" t="s">
         <v>507</v>
       </c>
       <c r="N62" s="3" t="s">
@@ -7395,7 +7401,7 @@
       <c r="Z62" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="AA62" s="10" t="s">
+      <c r="AA62" s="11" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7427,16 +7433,16 @@
       <c r="I63" s="3">
         <v>6</v>
       </c>
-      <c r="J63" s="10" t="s">
+      <c r="J63" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="K63" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="M63" s="10" t="s">
+      <c r="M63" s="11" t="s">
         <v>507</v>
       </c>
       <c r="N63" s="3" t="s">
@@ -7478,7 +7484,7 @@
       <c r="Z63" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="AA63" s="10" t="s">
+      <c r="AA63" s="11" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7510,16 +7516,16 @@
       <c r="I64" s="3">
         <v>6</v>
       </c>
-      <c r="J64" s="10" t="s">
+      <c r="J64" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="K64" s="10" t="s">
+      <c r="K64" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="M64" s="10" t="s">
+      <c r="M64" s="11" t="s">
         <v>507</v>
       </c>
       <c r="N64" s="3" t="s">
@@ -7561,7 +7567,7 @@
       <c r="Z64" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="AA64" s="10" t="s">
+      <c r="AA64" s="11" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7593,16 +7599,16 @@
       <c r="I65" s="3">
         <v>6</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="M65" s="10" t="s">
+      <c r="M65" s="11" t="s">
         <v>507</v>
       </c>
       <c r="N65" s="3" t="s">
@@ -7632,7 +7638,7 @@
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
       <c r="Z65" s="7"/>
-      <c r="AA65" s="10" t="s">
+      <c r="AA65" s="11" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7664,16 +7670,16 @@
       <c r="I66" s="3">
         <v>6</v>
       </c>
-      <c r="J66" s="10" t="s">
+      <c r="J66" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="M66" s="10" t="s">
+      <c r="M66" s="11" t="s">
         <v>507</v>
       </c>
       <c r="N66" s="3" t="s">
@@ -7715,7 +7721,7 @@
       <c r="Z66" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="AA66" s="10" t="s">
+      <c r="AA66" s="11" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7747,16 +7753,16 @@
       <c r="I67" s="3">
         <v>6</v>
       </c>
-      <c r="J67" s="10" t="s">
+      <c r="J67" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="K67" s="10" t="s">
+      <c r="K67" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="M67" s="10" t="s">
+      <c r="M67" s="11" t="s">
         <v>507</v>
       </c>
       <c r="N67" s="3" t="s">
@@ -7798,7 +7804,7 @@
       <c r="Z67" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AA67" s="10" t="s">
+      <c r="AA67" s="11" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7830,16 +7836,16 @@
       <c r="I68" s="3">
         <v>6</v>
       </c>
-      <c r="J68" s="10" t="s">
+      <c r="J68" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="K68" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="L68" s="10" t="s">
+      <c r="L68" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="M68" s="10" t="s">
+      <c r="M68" s="11" t="s">
         <v>507</v>
       </c>
       <c r="N68" s="3" t="s">
@@ -7881,7 +7887,7 @@
       <c r="Z68" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="AA68" s="10" t="s">
+      <c r="AA68" s="11" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7913,16 +7919,16 @@
       <c r="I69" s="3">
         <v>6</v>
       </c>
-      <c r="J69" s="10" t="s">
+      <c r="J69" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="L69" s="10" t="s">
+      <c r="L69" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="M69" s="10" t="s">
+      <c r="M69" s="11" t="s">
         <v>507</v>
       </c>
       <c r="N69" s="3" t="s">
@@ -7964,7 +7970,7 @@
       <c r="Z69" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="AA69" s="10" t="s">
+      <c r="AA69" s="11" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7996,16 +8002,16 @@
       <c r="I70" s="3">
         <v>6</v>
       </c>
-      <c r="J70" s="10" t="s">
+      <c r="J70" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="K70" s="10" t="s">
+      <c r="K70" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="L70" s="10" t="s">
+      <c r="L70" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="M70" s="10" t="s">
+      <c r="M70" s="11" t="s">
         <v>507</v>
       </c>
       <c r="N70" s="3" t="s">
@@ -8047,7 +8053,7 @@
       <c r="Z70" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="AA70" s="10" t="s">
+      <c r="AA70" s="11" t="s">
         <v>512</v>
       </c>
     </row>
@@ -8079,16 +8085,16 @@
       <c r="I71" s="3">
         <v>6</v>
       </c>
-      <c r="J71" s="10" t="s">
+      <c r="J71" s="11" t="s">
         <v>504</v>
       </c>
-      <c r="K71" s="10" t="s">
+      <c r="K71" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="L71" s="10" t="s">
+      <c r="L71" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="M71" s="10" t="s">
+      <c r="M71" s="11" t="s">
         <v>507</v>
       </c>
       <c r="N71" s="3" t="s">
@@ -8114,7 +8120,7 @@
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="7"/>
-      <c r="AA71" s="10" t="s">
+      <c r="AA71" s="11" t="s">
         <v>512</v>
       </c>
     </row>
@@ -8146,16 +8152,16 @@
       <c r="I72" s="2">
         <v>7</v>
       </c>
-      <c r="J72" s="9" t="s">
+      <c r="J72" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="K72" s="9" t="s">
+      <c r="K72" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="L72" s="9" t="s">
+      <c r="L72" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="M72" s="9" t="s">
+      <c r="M72" s="10" t="s">
         <v>585</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -8177,7 +8183,7 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
       <c r="Z72" s="6"/>
-      <c r="AA72" s="9" t="s">
+      <c r="AA72" s="10" t="s">
         <v>588</v>
       </c>
     </row>
@@ -8209,16 +8215,16 @@
       <c r="I73" s="2">
         <v>7</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="J73" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="K73" s="9" t="s">
+      <c r="K73" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="L73" s="9" t="s">
+      <c r="L73" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="M73" s="9" t="s">
+      <c r="M73" s="10" t="s">
         <v>585</v>
       </c>
       <c r="N73" s="2" t="s">
@@ -8248,7 +8254,7 @@
       <c r="Z73" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="AA73" s="9" t="s">
+      <c r="AA73" s="10" t="s">
         <v>588</v>
       </c>
     </row>
@@ -8280,16 +8286,16 @@
       <c r="I74" s="2">
         <v>7</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="J74" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="K74" s="9" t="s">
+      <c r="K74" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="L74" s="9" t="s">
+      <c r="L74" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="M74" s="9" t="s">
+      <c r="M74" s="10" t="s">
         <v>585</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -8331,7 +8337,7 @@
       <c r="Z74" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="AA74" s="9" t="s">
+      <c r="AA74" s="10" t="s">
         <v>588</v>
       </c>
     </row>
@@ -8363,16 +8369,16 @@
       <c r="I75" s="2">
         <v>7</v>
       </c>
-      <c r="J75" s="9" t="s">
+      <c r="J75" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="K75" s="9" t="s">
+      <c r="K75" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="L75" s="9" t="s">
+      <c r="L75" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="M75" s="9" t="s">
+      <c r="M75" s="10" t="s">
         <v>585</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -8402,7 +8408,7 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="6"/>
-      <c r="AA75" s="9" t="s">
+      <c r="AA75" s="10" t="s">
         <v>588</v>
       </c>
     </row>
@@ -8434,16 +8440,16 @@
       <c r="I76" s="2">
         <v>7</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="K76" s="9" t="s">
+      <c r="K76" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="L76" s="9" t="s">
+      <c r="L76" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="M76" s="9" t="s">
+      <c r="M76" s="10" t="s">
         <v>585</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -8485,7 +8491,7 @@
       <c r="Z76" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="AA76" s="9" t="s">
+      <c r="AA76" s="10" t="s">
         <v>588</v>
       </c>
     </row>
@@ -8517,16 +8523,16 @@
       <c r="I77" s="2">
         <v>7</v>
       </c>
-      <c r="J77" s="9" t="s">
+      <c r="J77" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="K77" s="9" t="s">
+      <c r="K77" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="L77" s="9" t="s">
+      <c r="L77" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="M77" s="9" t="s">
+      <c r="M77" s="10" t="s">
         <v>585</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -8568,7 +8574,7 @@
       <c r="Z77" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="AA77" s="9" t="s">
+      <c r="AA77" s="10" t="s">
         <v>588</v>
       </c>
     </row>
@@ -8600,16 +8606,16 @@
       <c r="I78" s="2">
         <v>7</v>
       </c>
-      <c r="J78" s="9" t="s">
+      <c r="J78" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="K78" s="9" t="s">
+      <c r="K78" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="L78" s="9" t="s">
+      <c r="L78" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="M78" s="9" t="s">
+      <c r="M78" s="10" t="s">
         <v>585</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -8651,7 +8657,7 @@
       <c r="Z78" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="AA78" s="9" t="s">
+      <c r="AA78" s="10" t="s">
         <v>588</v>
       </c>
     </row>
@@ -8683,16 +8689,16 @@
       <c r="I79" s="2">
         <v>7</v>
       </c>
-      <c r="J79" s="9" t="s">
+      <c r="J79" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="K79" s="9" t="s">
+      <c r="K79" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="L79" s="9" t="s">
+      <c r="L79" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="M79" s="9" t="s">
+      <c r="M79" s="10" t="s">
         <v>585</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -8734,7 +8740,7 @@
       <c r="Z79" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="AA79" s="9" t="s">
+      <c r="AA79" s="10" t="s">
         <v>588</v>
       </c>
     </row>
@@ -8766,16 +8772,16 @@
       <c r="I80" s="2">
         <v>7</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="J80" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="K80" s="9" t="s">
+      <c r="K80" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="L80" s="9" t="s">
+      <c r="L80" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="M80" s="9" t="s">
+      <c r="M80" s="10" t="s">
         <v>585</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -8801,7 +8807,7 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
       <c r="Z80" s="6"/>
-      <c r="AA80" s="9" t="s">
+      <c r="AA80" s="10" t="s">
         <v>588</v>
       </c>
     </row>
@@ -8833,16 +8839,16 @@
       <c r="I81" s="3">
         <v>7</v>
       </c>
-      <c r="J81" s="10" t="s">
+      <c r="J81" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="K81" s="10" t="s">
+      <c r="K81" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="L81" s="10" t="s">
+      <c r="L81" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="M81" s="10" t="s">
+      <c r="M81" s="11" t="s">
         <v>630</v>
       </c>
       <c r="N81" s="3" t="s">
@@ -8872,7 +8878,7 @@
       <c r="Z81" s="7" t="s">
         <v>546</v>
       </c>
-      <c r="AA81" s="10" t="s">
+      <c r="AA81" s="11" t="s">
         <v>636</v>
       </c>
     </row>
@@ -8904,16 +8910,16 @@
       <c r="I82" s="3">
         <v>7</v>
       </c>
-      <c r="J82" s="10" t="s">
+      <c r="J82" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="K82" s="10" t="s">
+      <c r="K82" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="L82" s="10" t="s">
+      <c r="L82" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="M82" s="10" t="s">
+      <c r="M82" s="11" t="s">
         <v>630</v>
       </c>
       <c r="N82" s="3" t="s">
@@ -8955,7 +8961,7 @@
       <c r="Z82" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="AA82" s="10" t="s">
+      <c r="AA82" s="11" t="s">
         <v>636</v>
       </c>
     </row>
@@ -8987,16 +8993,16 @@
       <c r="I83" s="3">
         <v>7</v>
       </c>
-      <c r="J83" s="10" t="s">
+      <c r="J83" s="11" t="s">
         <v>627</v>
       </c>
-      <c r="K83" s="10" t="s">
+      <c r="K83" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="L83" s="10" t="s">
+      <c r="L83" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="M83" s="10" t="s">
+      <c r="M83" s="11" t="s">
         <v>630</v>
       </c>
       <c r="N83" s="3" t="s">
@@ -9022,7 +9028,7 @@
       </c>
       <c r="Y83" s="3"/>
       <c r="Z83" s="7"/>
-      <c r="AA83" s="10" t="s">
+      <c r="AA83" s="11" t="s">
         <v>636</v>
       </c>
     </row>
@@ -9054,16 +9060,16 @@
       <c r="I84" s="2">
         <v>8</v>
       </c>
-      <c r="J84" s="9" t="s">
+      <c r="J84" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="K84" s="9" t="s">
+      <c r="K84" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="L84" s="9" t="s">
+      <c r="L84" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="M84" s="9" t="s">
+      <c r="M84" s="10" t="s">
         <v>654</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -9093,7 +9099,7 @@
       <c r="Z84" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="AA84" s="9" t="s">
+      <c r="AA84" s="10" t="s">
         <v>659</v>
       </c>
     </row>
@@ -9125,16 +9131,16 @@
       <c r="I85" s="2">
         <v>8</v>
       </c>
-      <c r="J85" s="9" t="s">
+      <c r="J85" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="K85" s="9" t="s">
+      <c r="K85" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="L85" s="9" t="s">
+      <c r="L85" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="M85" s="9" t="s">
+      <c r="M85" s="10" t="s">
         <v>654</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -9176,7 +9182,7 @@
       <c r="Z85" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="AA85" s="9" t="s">
+      <c r="AA85" s="10" t="s">
         <v>659</v>
       </c>
     </row>
@@ -9208,16 +9214,16 @@
       <c r="I86" s="2">
         <v>8</v>
       </c>
-      <c r="J86" s="9" t="s">
+      <c r="J86" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="K86" s="9" t="s">
+      <c r="K86" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="L86" s="9" t="s">
+      <c r="L86" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="M86" s="9" t="s">
+      <c r="M86" s="10" t="s">
         <v>654</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -9259,7 +9265,7 @@
       <c r="Z86" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="AA86" s="9" t="s">
+      <c r="AA86" s="10" t="s">
         <v>659</v>
       </c>
     </row>
@@ -9291,16 +9297,16 @@
       <c r="I87" s="2">
         <v>8</v>
       </c>
-      <c r="J87" s="9" t="s">
+      <c r="J87" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="K87" s="9" t="s">
+      <c r="K87" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="L87" s="9" t="s">
+      <c r="L87" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="M87" s="9" t="s">
+      <c r="M87" s="10" t="s">
         <v>654</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -9330,7 +9336,7 @@
       <c r="Z87" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="AA87" s="9" t="s">
+      <c r="AA87" s="10" t="s">
         <v>659</v>
       </c>
     </row>
@@ -9362,16 +9368,16 @@
       <c r="I88" s="2">
         <v>8</v>
       </c>
-      <c r="J88" s="9" t="s">
+      <c r="J88" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="K88" s="9" t="s">
+      <c r="K88" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="L88" s="9" t="s">
+      <c r="L88" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="M88" s="9" t="s">
+      <c r="M88" s="10" t="s">
         <v>654</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -9401,7 +9407,7 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
       <c r="Z88" s="6"/>
-      <c r="AA88" s="9" t="s">
+      <c r="AA88" s="10" t="s">
         <v>659</v>
       </c>
     </row>
@@ -9433,16 +9439,16 @@
       <c r="I89" s="2">
         <v>8</v>
       </c>
-      <c r="J89" s="9" t="s">
+      <c r="J89" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="K89" s="9" t="s">
+      <c r="K89" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="L89" s="9" t="s">
+      <c r="L89" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="M89" s="9" t="s">
+      <c r="M89" s="10" t="s">
         <v>654</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -9472,7 +9478,7 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="6"/>
-      <c r="AA89" s="9" t="s">
+      <c r="AA89" s="10" t="s">
         <v>659</v>
       </c>
     </row>
@@ -9504,16 +9510,16 @@
       <c r="I90" s="2">
         <v>8</v>
       </c>
-      <c r="J90" s="9" t="s">
+      <c r="J90" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="K90" s="9" t="s">
+      <c r="K90" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="L90" s="9" t="s">
+      <c r="L90" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="M90" s="9" t="s">
+      <c r="M90" s="10" t="s">
         <v>654</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -9555,7 +9561,7 @@
       <c r="Z90" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="AA90" s="9" t="s">
+      <c r="AA90" s="10" t="s">
         <v>659</v>
       </c>
     </row>
@@ -9587,16 +9593,16 @@
       <c r="I91" s="2">
         <v>8</v>
       </c>
-      <c r="J91" s="9" t="s">
+      <c r="J91" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="K91" s="9" t="s">
+      <c r="K91" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="L91" s="9" t="s">
+      <c r="L91" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="M91" s="9" t="s">
+      <c r="M91" s="10" t="s">
         <v>654</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -9638,7 +9644,7 @@
       <c r="Z91" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="AA91" s="9" t="s">
+      <c r="AA91" s="10" t="s">
         <v>659</v>
       </c>
     </row>
@@ -9670,16 +9676,16 @@
       <c r="I92" s="2">
         <v>8</v>
       </c>
-      <c r="J92" s="9" t="s">
+      <c r="J92" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="K92" s="9" t="s">
+      <c r="K92" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="L92" s="9" t="s">
+      <c r="L92" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="M92" s="9" t="s">
+      <c r="M92" s="10" t="s">
         <v>654</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -9721,7 +9727,7 @@
       <c r="Z92" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="AA92" s="9" t="s">
+      <c r="AA92" s="10" t="s">
         <v>659</v>
       </c>
     </row>
@@ -9753,16 +9759,16 @@
       <c r="I93" s="2">
         <v>8</v>
       </c>
-      <c r="J93" s="9" t="s">
+      <c r="J93" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="K93" s="9" t="s">
+      <c r="K93" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="L93" s="9" t="s">
+      <c r="L93" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="M93" s="9" t="s">
+      <c r="M93" s="10" t="s">
         <v>654</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -9804,7 +9810,7 @@
       <c r="Z93" s="6" t="s">
         <v>706</v>
       </c>
-      <c r="AA93" s="9" t="s">
+      <c r="AA93" s="10" t="s">
         <v>659</v>
       </c>
     </row>
@@ -9836,16 +9842,16 @@
       <c r="I94" s="2">
         <v>8</v>
       </c>
-      <c r="J94" s="9" t="s">
+      <c r="J94" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="K94" s="9" t="s">
+      <c r="K94" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="L94" s="9" t="s">
+      <c r="L94" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="M94" s="9" t="s">
+      <c r="M94" s="10" t="s">
         <v>654</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -9887,7 +9893,7 @@
       <c r="Z94" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="AA94" s="9" t="s">
+      <c r="AA94" s="10" t="s">
         <v>659</v>
       </c>
     </row>
@@ -9919,16 +9925,16 @@
       <c r="I95" s="2">
         <v>8</v>
       </c>
-      <c r="J95" s="9" t="s">
+      <c r="J95" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="K95" s="9" t="s">
+      <c r="K95" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="L95" s="9" t="s">
+      <c r="L95" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="M95" s="9" t="s">
+      <c r="M95" s="10" t="s">
         <v>654</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -9954,22 +9960,52 @@
       </c>
       <c r="Y95" s="2"/>
       <c r="Z95" s="6"/>
-      <c r="AA95" s="9" t="s">
+      <c r="AA95" s="10" t="s">
         <v>659</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J84:J95"/>
+    <mergeCell ref="K84:K95"/>
+    <mergeCell ref="L84:L95"/>
+    <mergeCell ref="M84:M95"/>
+    <mergeCell ref="AA84:AA95"/>
+    <mergeCell ref="J81:J83"/>
+    <mergeCell ref="K81:K83"/>
+    <mergeCell ref="L81:L83"/>
+    <mergeCell ref="M81:M83"/>
+    <mergeCell ref="AA81:AA83"/>
+    <mergeCell ref="J72:J80"/>
+    <mergeCell ref="K72:K80"/>
+    <mergeCell ref="L72:L80"/>
+    <mergeCell ref="M72:M80"/>
+    <mergeCell ref="AA72:AA80"/>
+    <mergeCell ref="J61:J71"/>
+    <mergeCell ref="K61:K71"/>
+    <mergeCell ref="L61:L71"/>
+    <mergeCell ref="M61:M71"/>
+    <mergeCell ref="AA61:AA71"/>
+    <mergeCell ref="J50:J60"/>
+    <mergeCell ref="K50:K60"/>
+    <mergeCell ref="L50:L60"/>
+    <mergeCell ref="M50:M60"/>
+    <mergeCell ref="AA50:AA60"/>
+    <mergeCell ref="J39:J49"/>
+    <mergeCell ref="K39:K49"/>
+    <mergeCell ref="L39:L49"/>
+    <mergeCell ref="M39:M49"/>
+    <mergeCell ref="AA39:AA49"/>
+    <mergeCell ref="J27:J38"/>
+    <mergeCell ref="K27:K38"/>
+    <mergeCell ref="L27:L38"/>
+    <mergeCell ref="M27:M38"/>
+    <mergeCell ref="AA27:AA38"/>
+    <mergeCell ref="J15:J26"/>
+    <mergeCell ref="K15:K26"/>
+    <mergeCell ref="L15:L26"/>
+    <mergeCell ref="M15:M26"/>
+    <mergeCell ref="AA15:AA26"/>
     <mergeCell ref="X1:Z1"/>
     <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="J3:J14"/>
@@ -9982,46 +10018,16 @@
     <mergeCell ref="O1:Q1"/>
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="U1:W1"/>
-    <mergeCell ref="J15:J26"/>
-    <mergeCell ref="K15:K26"/>
-    <mergeCell ref="L15:L26"/>
-    <mergeCell ref="M15:M26"/>
-    <mergeCell ref="AA15:AA26"/>
-    <mergeCell ref="J27:J38"/>
-    <mergeCell ref="K27:K38"/>
-    <mergeCell ref="L27:L38"/>
-    <mergeCell ref="M27:M38"/>
-    <mergeCell ref="AA27:AA38"/>
-    <mergeCell ref="J39:J49"/>
-    <mergeCell ref="K39:K49"/>
-    <mergeCell ref="L39:L49"/>
-    <mergeCell ref="M39:M49"/>
-    <mergeCell ref="AA39:AA49"/>
-    <mergeCell ref="J50:J60"/>
-    <mergeCell ref="K50:K60"/>
-    <mergeCell ref="L50:L60"/>
-    <mergeCell ref="M50:M60"/>
-    <mergeCell ref="AA50:AA60"/>
-    <mergeCell ref="J61:J71"/>
-    <mergeCell ref="K61:K71"/>
-    <mergeCell ref="L61:L71"/>
-    <mergeCell ref="M61:M71"/>
-    <mergeCell ref="AA61:AA71"/>
-    <mergeCell ref="J72:J80"/>
-    <mergeCell ref="K72:K80"/>
-    <mergeCell ref="L72:L80"/>
-    <mergeCell ref="M72:M80"/>
-    <mergeCell ref="AA72:AA80"/>
-    <mergeCell ref="J81:J83"/>
-    <mergeCell ref="K81:K83"/>
-    <mergeCell ref="L81:L83"/>
-    <mergeCell ref="M81:M83"/>
-    <mergeCell ref="AA81:AA83"/>
-    <mergeCell ref="J84:J95"/>
-    <mergeCell ref="K84:K95"/>
-    <mergeCell ref="L84:L95"/>
-    <mergeCell ref="M84:M95"/>
-    <mergeCell ref="AA84:AA95"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
